--- a/biology/Zoologie/Bavayia_montana/Bavayia_montana.xlsx
+++ b/biology/Zoologie/Bavayia_montana/Bavayia_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bavayia montana est une espèce de gecko de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bavayia montana est une espèce de gecko de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko à l'un aspect relativement trapu, avec un coup massif et une queue épaisse. Le corps est brun-gris clair, avec des taches allongées plus claires sur le dos.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique montana vient du latin montanus, se rapportant aux montagnes, en référence à la répartition de ce saurien[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique montana vient du latin montanus, se rapportant aux montagnes, en référence à la répartition de ce saurien.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roux, 1913 : Les reptiles de la Nouvelle-Calédonie et des îles Loyalty. Nova Caledonia, Recherches scientifiques en Nouvelle-Calédonie et aux Iles Loyalty. Zoologie. vol. 1, L. 2, Sarasin &amp; Roux, C.W. Kreidel’s Verlag, Wiesbaden, vol. 1, p. 79-160 (texte intégral).</t>
         </is>
